--- a/biology/Zoologie/Hemitragus/Hemitragus.xlsx
+++ b/biology/Zoologie/Hemitragus/Hemitragus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemitragus est un genre de caprins comprenant une espèce, Hemitragus jemlahicus, connue sous le nom de jharal.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On associait à ce genre les trois espèces de tahrs, un groupe aujourd'hui éclaté en 3 genres différents[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On associait à ce genre les trois espèces de tahrs, un groupe aujourd'hui éclaté en 3 genres différents.
 </t>
         </is>
       </c>
@@ -542,14 +556,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hemitragus jemlahicus (H. Smith, 1826) — tahr de l'Himalaya ou jharal
 Hemitragus hylocrius Ogilby 1838 (antelope)
-Hemitragus jayakari Thomas 1894 (antelope)[2]
-Espèce fossile
-Selon Paleobiology Database, en 2022, une seule espèce est déclarée fossile :
-†Hemitragus cedrensis Crégut-Bonnoure 1989[2],[3].</t>
+Hemitragus jayakari Thomas 1894 (antelope)</t>
         </is>
       </c>
     </row>
@@ -574,10 +587,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce fossile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database, en 2022, une seule espèce est déclarée fossile :
+†Hemitragus cedrensis Crégut-Bonnoure 1989,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hemitragus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemitragus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 N.B. les positions phylogénétiques d'Ammotragus, Arabitragus, Oreamnos ou Rupicapra restent incertaines.
